--- a/Suspicious Activity Report Rubric v2.xlsx
+++ b/Suspicious Activity Report Rubric v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addro\Downloads\ABC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98C2133-DF1E-4B02-AB2E-FDC86D7641D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9A7800-AC3D-4DBE-82DA-80987896BB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,12 @@
     </comment>
     <comment ref="A8" authorId="1" shapeId="0" xr:uid="{BCDF30A5-4763-4B9D-BFB8-DB834BB39A95}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This paragraph provides the reader with a bird’s-eye view of the suspicious activity, setting the stage for the details that follow. </t>
+    This paragraph provides the reader with a bird’s-eye view of the suspicious activity, setting the stage for the details that follow. 
+Reply:
+    Accuracy needs to be added</t>
       </text>
     </comment>
     <comment ref="A18" authorId="2" shapeId="0" xr:uid="{71CD9139-170F-4CB6-9050-61FF79BD5798}">
@@ -71,10 +73,12 @@
     </comment>
     <comment ref="A32" authorId="3" shapeId="0" xr:uid="{FDF42FB9-3470-46DB-AF40-4E1F3307F51F}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Incoming transactions are often the source of suspicious funds. This section identifies if those activities seem structured, unusual, or unjustified. </t>
+    Incoming transactions are often the source of suspicious funds. This section identifies if those activities seem structured, unusual, or unjustified. 
+Reply:
+    Accuracy section to be added</t>
       </text>
     </comment>
   </commentList>
@@ -92,7 +96,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
   <si>
     <t xml:space="preserve">Suspicious Activity Report (SAR) Evaluation Rubric </t>
   </si>
@@ -184,9 +188,6 @@
     <t>Clarity &amp; Coherence</t>
   </si>
   <si>
-    <t>Foul/Inappropriate Language</t>
-  </si>
-  <si>
     <t>Total Score</t>
   </si>
   <si>
@@ -224,12 +225,6 @@
   </si>
   <si>
     <t>Vague or confusing narrative.</t>
-  </si>
-  <si>
-    <t>No foul or unprofessional language detected.</t>
-  </si>
-  <si>
-    <t>Presence of inappropriate or unprofessional language.</t>
   </si>
   <si>
     <t>Section 2 - General Transaction Summary</t>
@@ -285,6 +280,33 @@
   <si>
     <t xml:space="preserve">Section 5 - Legal Contact Information </t>
   </si>
+  <si>
+    <t>Transaction details correctly match alert narrative and data.</t>
+  </si>
+  <si>
+    <t>Errors or discrepancies in amounts, names, or dates.</t>
+  </si>
+  <si>
+    <t>Summary is clear, well-structured, and readable.</t>
+  </si>
+  <si>
+    <t>Mostly clear with minor issues.</t>
+  </si>
+  <si>
+    <t>Some confusion, requires effort to interpret.</t>
+  </si>
+  <si>
+    <t>Disorganized or unclear.</t>
+  </si>
+  <si>
+    <t>Clarity, Coherence &amp; Inappropriateness</t>
+  </si>
+  <si>
+    <t>Red flags are supported by evidence from transactions and KYC.</t>
+  </si>
+  <si>
+    <t>Unsupported or incorrect red flags.</t>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,20 +387,8 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +423,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor rgb="FF9ADACB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -563,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,6 +626,41 @@
     <xf numFmtId="164" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -618,12 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -638,15 +683,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -655,29 +692,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -685,15 +707,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,21 +946,27 @@
   <threadedComment ref="A8" dT="2025-03-28T01:07:58.39" personId="{D23D73AA-95DF-4023-AE5F-8F2C82C60097}" id="{BCDF30A5-4763-4B9D-BFB8-DB834BB39A95}">
     <text xml:space="preserve">This paragraph provides the reader with a bird’s-eye view of the suspicious activity, setting the stage for the details that follow. </text>
   </threadedComment>
+  <threadedComment ref="A8" dT="2025-04-04T17:52:28.07" personId="{D23D73AA-95DF-4023-AE5F-8F2C82C60097}" id="{EDDA2609-FEF3-4CDB-970E-A2ECD145E56B}" parentId="{BCDF30A5-4763-4B9D-BFB8-DB834BB39A95}">
+    <text>Accuracy needs to be added</text>
+  </threadedComment>
   <threadedComment ref="A18" dT="2025-03-28T01:08:18.97" personId="{D23D73AA-95DF-4023-AE5F-8F2C82C60097}" id="{71CD9139-170F-4CB6-9050-61FF79BD5798}">
     <text xml:space="preserve">Incoming transactions are often the source of suspicious funds. This section identifies if those activities seem structured, unusual, or unjustified. </text>
   </threadedComment>
   <threadedComment ref="A32" dT="2025-03-28T01:08:18.97" personId="{D23D73AA-95DF-4023-AE5F-8F2C82C60097}" id="{FDF42FB9-3470-46DB-AF40-4E1F3307F51F}">
     <text xml:space="preserve">Incoming transactions are often the source of suspicious funds. This section identifies if those activities seem structured, unusual, or unjustified. </text>
   </threadedComment>
+  <threadedComment ref="A32" dT="2025-04-04T17:52:44.79" personId="{D23D73AA-95DF-4023-AE5F-8F2C82C60097}" id="{CA353C68-7E8B-4A40-A8FC-434ABC693E13}" parentId="{FDF42FB9-3470-46DB-AF40-4E1F3307F51F}">
+    <text>Accuracy section to be added</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F939"/>
+  <dimension ref="A1:F926"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A18" zoomScale="65" zoomScaleNormal="53" workbookViewId="0">
+      <selection sqref="A1:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -954,20 +980,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -984,7 +1010,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -994,11 +1020,11 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -1006,11 +1032,11 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
@@ -1020,11 +1046,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1">
         <v>0</v>
       </c>
@@ -1032,19 +1058,19 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1058,114 +1084,114 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="18">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
-      <c r="B11" s="35">
+      <c r="A11" s="44"/>
+      <c r="B11" s="18">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="35">
+      <c r="A12" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="18">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
-      <c r="B13" s="35">
+      <c r="A13" s="43"/>
+      <c r="B13" s="18">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="35">
+      <c r="A14" s="43"/>
+      <c r="B14" s="18">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
-      <c r="B15" s="35">
+      <c r="A15" s="43"/>
+      <c r="B15" s="18">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="35">
+      <c r="A16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="47">
         <v>4</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
+      <c r="D16" s="49" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
-      <c r="B17" s="35">
+      <c r="A17" s="35"/>
+      <c r="B17" s="47">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>37</v>
+      <c r="D17" s="49" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
@@ -1182,7 +1208,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1">
@@ -1192,11 +1218,11 @@
         <v>6</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="1">
         <v>0</v>
       </c>
@@ -1204,11 +1230,11 @@
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -1218,11 +1244,11 @@
         <v>6</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="41"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="1">
         <v>0</v>
       </c>
@@ -1230,11 +1256,11 @@
         <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="1">
@@ -1244,11 +1270,11 @@
         <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
@@ -1256,11 +1282,11 @@
         <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
@@ -1268,11 +1294,11 @@
         <v>11</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="41"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="1">
         <v>1</v>
       </c>
@@ -1280,11 +1306,11 @@
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="1">
@@ -1294,11 +1320,11 @@
         <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -1306,11 +1332,11 @@
         <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="32"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="1">
         <v>2</v>
       </c>
@@ -1318,11 +1344,11 @@
         <v>11</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -1330,16 +1356,16 @@
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
+      <c r="A32" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
@@ -1356,7 +1382,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1">
@@ -1366,11 +1392,11 @@
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="1">
         <v>0</v>
       </c>
@@ -1378,11 +1404,11 @@
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="1">
@@ -1392,11 +1418,11 @@
         <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="32"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="1">
         <v>3</v>
       </c>
@@ -1404,11 +1430,11 @@
         <v>10</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="1">
         <v>2</v>
       </c>
@@ -1416,11 +1442,11 @@
         <v>11</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="41"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="1">
         <v>1</v>
       </c>
@@ -1428,147 +1454,163 @@
         <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="31" t="s">
-        <v>21</v>
+      <c r="A40" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="30"/>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
-      <c r="B41" s="1">
+      <c r="D42" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="42"/>
+      <c r="B43" s="1">
         <v>3</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D43" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="42"/>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32"/>
-      <c r="B42" s="1">
+    <row r="45" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="30"/>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="33"/>
+    </row>
+    <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="41"/>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D47" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="21" t="s">
+    <row r="48" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B48" s="1">
         <v>4</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D48" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="25"/>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="22"/>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>16</v>
+      <c r="A52" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1623,61 +1665,17 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
+    <row r="65" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="76" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1688,17 +1686,61 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
     <row r="89" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5889,79 +5931,13 @@
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
     </row>
-    <row r="927" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B927" s="4"/>
-      <c r="C927" s="4"/>
-      <c r="D927" s="4"/>
-    </row>
-    <row r="928" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B928" s="4"/>
-      <c r="C928" s="4"/>
-      <c r="D928" s="4"/>
-    </row>
-    <row r="929" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B929" s="4"/>
-      <c r="C929" s="4"/>
-      <c r="D929" s="4"/>
-    </row>
-    <row r="930" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B930" s="4"/>
-      <c r="C930" s="4"/>
-      <c r="D930" s="4"/>
-    </row>
-    <row r="931" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B931" s="4"/>
-      <c r="C931" s="4"/>
-      <c r="D931" s="4"/>
-    </row>
-    <row r="932" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B932" s="4"/>
-      <c r="C932" s="4"/>
-      <c r="D932" s="4"/>
-    </row>
-    <row r="933" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B933" s="4"/>
-      <c r="C933" s="4"/>
-      <c r="D933" s="4"/>
-    </row>
-    <row r="934" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B934" s="4"/>
-      <c r="C934" s="4"/>
-      <c r="D934" s="4"/>
-    </row>
-    <row r="935" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B935" s="4"/>
-      <c r="C935" s="4"/>
-      <c r="D935" s="4"/>
-    </row>
-    <row r="936" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B936" s="4"/>
-      <c r="C936" s="4"/>
-      <c r="D936" s="4"/>
-    </row>
-    <row r="937" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B937" s="4"/>
-      <c r="C937" s="4"/>
-      <c r="D937" s="4"/>
-    </row>
-    <row r="938" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B938" s="4"/>
-      <c r="C938" s="4"/>
-      <c r="D938" s="4"/>
-    </row>
-    <row r="939" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B939" s="4"/>
-      <c r="C939" s="4"/>
-      <c r="D939" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A34:A35"/>
+  <mergeCells count="20">
     <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A2:D2"/>
@@ -5975,6 +5951,8 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5986,8 +5964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F980"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6001,20 +5979,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
@@ -6035,14 +6013,14 @@
         <v>5</v>
       </c>
       <c r="B4" s="8">
-        <v>0.1875</v>
+        <v>0.17</v>
       </c>
       <c r="C4" s="9">
         <v>4</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D5" si="0">B4*C4</f>
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6050,90 +6028,90 @@
         <v>20</v>
       </c>
       <c r="B5" s="8">
-        <v>0.1875</v>
+        <v>0.17</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="47">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="46">
+      <c r="B8" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="C8" s="22">
         <v>4</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="22">
         <f>B8*C8</f>
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="47">
-        <v>0.05</v>
-      </c>
-      <c r="C9" s="46">
+      <c r="A9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="C9" s="22">
         <v>4</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="22">
         <f t="shared" ref="D9:D10" si="1">B9*C9</f>
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="47">
-        <v>0.05</v>
-      </c>
-      <c r="C10" s="46">
+      <c r="A10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="C10" s="22">
         <v>4</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="22">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
+      <c r="A11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
@@ -6210,12 +6188,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
+      <c r="A17" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
@@ -6246,9 +6224,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="8">
         <v>0.05</v>
@@ -6257,13 +6235,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" ref="D20:D21" si="4">B20*C20</f>
+        <f>B20*C20</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B21" s="8">
         <v>0.05</v>
@@ -6272,94 +6250,84 @@
         <v>4</v>
       </c>
       <c r="D21" s="9">
+        <f t="shared" ref="D21:D22" si="4">B21*C21</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C22" s="9">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="B25" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C25" s="9">
         <v>4</v>
       </c>
-      <c r="D24" s="9">
-        <f t="shared" ref="D24" si="5">B24*C24</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="15">
-        <f>SUM(B4:B5,B8:B10,B13:B16,B19:B21,B24)</f>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25" si="5">B25*C25</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15">
+        <f>SUM(B4:B5,B8:B10,B13:B16,B19:B22,B25)</f>
         <v>1.0000000000000004</v>
       </c>
-      <c r="C25" s="16">
-        <f>SUM(C4:C5,C8:C10,C13:C16,C19:C21,C24)</f>
-        <v>52</v>
-      </c>
-      <c r="D25" s="17">
-        <f>SUM(D4:D5,D8:D10,D13:D16,D19:D21,D24)</f>
+      <c r="C26" s="16">
+        <f>SUM(C4:C5,C8:C10,C13:C16,C19:C22,C25)</f>
+        <v>56</v>
+      </c>
+      <c r="D26" s="17">
+        <f>SUM(D4:D5,D8:D10,D13:D16,D19:D22,D25)</f>
         <v>4.0000000000000018</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -11093,7 +11061,7 @@
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A17:D17"/>
